--- a/Data/Raw/UK_Key_Events_2015_2025.xlsx
+++ b/Data/Raw/UK_Key_Events_2015_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\pet-inflation\Data\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B311F10B-6043-416E-BA3B-A63804C43CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63105619-4638-4C13-9CF9-DBD099DEB979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>Year</t>
   </si>
@@ -65,18 +65,9 @@
     <t>Event</t>
   </si>
   <si>
-    <t>Exact Date</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>UK General Election</t>
   </si>
   <si>
-    <t>Wikipedia</t>
-  </si>
-  <si>
     <t>Labour Party Leadership Election</t>
   </si>
   <si>
@@ -101,9 +92,6 @@
     <t>Announced on 11 Feb 2015</t>
   </si>
   <si>
-    <t>Parliament UK</t>
-  </si>
-  <si>
     <t>Queen Elizabeth II Becomes Longest-Reigning British Monarch</t>
   </si>
   <si>
@@ -116,9 +104,6 @@
     <t>Supermoon (Closest Full Moon of the Year)</t>
   </si>
   <si>
-    <t>The Scottish Sun</t>
-  </si>
-  <si>
     <t>Brexit Referendum</t>
   </si>
   <si>
@@ -134,15 +119,6 @@
     <t>Ongoing from 2016</t>
   </si>
   <si>
-    <t>Other Security and Humanitarian Events (e.g., Refugee Crisis)</t>
-  </si>
-  <si>
-    <t>Various Dates</t>
-  </si>
-  <si>
-    <t>BBC News</t>
-  </si>
-  <si>
     <t>Manchester Arena Terrorist Attack</t>
   </si>
   <si>
@@ -167,21 +143,9 @@
     <t>England's World Cup Performance (Reaching Semi-Finals)</t>
   </si>
   <si>
-    <t>BBC Sport</t>
-  </si>
-  <si>
-    <t>UK Heatwave and Wildfires</t>
-  </si>
-  <si>
-    <t>Summer 2018</t>
-  </si>
-  <si>
     <t>Novichok Poisoning (Second Incident in Amesbury)</t>
   </si>
   <si>
-    <t>Brexit Developments (Parliamentary Votes, Deal Negotiations)</t>
-  </si>
-  <si>
     <t>Sporting Triumphs: England Wins Cricket World Cup</t>
   </si>
   <si>
@@ -194,9 +158,6 @@
     <t>Economic Measures: Introduction of Furlough Scheme</t>
   </si>
   <si>
-    <t>Gov.uk</t>
-  </si>
-  <si>
     <t>NHS Strain Due to COVID-19</t>
   </si>
   <si>
@@ -273,13 +234,25 @@
   </si>
   <si>
     <t>International Relations: Strengthening Ties with Commonwealth and European Partners</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,14 +264,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -336,9 +301,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -354,15 +318,12 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -774,757 +735,663 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6A453E-BD8E-40FD-80F8-18455C31A862}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2015</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6">
         <v>42131</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E2" s="4">
+        <v>42131</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2015</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6">
+        <v>42230</v>
+      </c>
+      <c r="D3" s="6">
+        <v>42257</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2015</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6">
         <v>42321</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>42321</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2015</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6">
+        <v>42005</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6">
         <v>42126</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E6" s="4">
+        <v>42126</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2015</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6">
+        <v>42046</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2015</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6">
         <v>42256</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>42256</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2015</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6">
         <v>42157</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E9" s="4">
+        <v>42157</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2015</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6">
         <v>42119</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>42119</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2015</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6">
         <v>42274</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>42274</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2016</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6">
+        <v>42178</v>
+      </c>
+      <c r="E12" s="4">
         <v>42544</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2016</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6">
+        <v>42542</v>
+      </c>
+      <c r="D13" s="6">
+        <v>42637</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2016</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6">
+        <v>42370</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>42894</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42894</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2017</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="4">
-        <v>42894</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C16" s="6">
+        <v>42877</v>
+      </c>
+      <c r="E16" s="4">
+        <v>42877</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2017</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4">
-        <v>42877</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C17" s="6">
+        <v>42889</v>
+      </c>
+      <c r="E17" s="4">
+        <v>42889</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2017</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="4">
-        <v>42889</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C18" s="6">
+        <v>42900</v>
+      </c>
+      <c r="E18" s="4">
+        <v>42900</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2017</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="4">
-        <v>42900</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C19" s="6">
+        <v>42736</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C20" s="6">
+        <v>43224</v>
+      </c>
+      <c r="E20" s="4">
+        <v>43163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2018</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="4">
-        <v>43163</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6">
+        <v>43239</v>
+      </c>
+      <c r="E21" s="4">
+        <v>43239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2018</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="4">
-        <v>43239</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C22" s="6">
+        <v>43252</v>
+      </c>
+      <c r="E22" s="5">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2018</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C23" s="6">
-        <v>43282</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>43281</v>
+      </c>
+      <c r="E23" s="4">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C24" s="6">
+        <v>43811</v>
+      </c>
+      <c r="E24" s="4">
+        <v>43811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="4">
-        <v>43281</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E25" s="4">
+        <v>43660</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2019</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E26" s="4">
+        <v>43665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="4">
-        <v>43811</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E27" s="4">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="4">
-        <v>43660</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E28" s="4">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="4">
-        <v>43665</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2020</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="4">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="4">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="5">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="4">
-        <v>43913</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="4">
-        <v>43910</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="E36" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="4">
-        <v>44196</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="4">
-        <v>44396</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="6">
-        <v>44378</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2022</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="5">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="4">
+        <v>45052</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="E42" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="E43" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B39" s="3" t="s">
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="E45" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="6">
-        <v>44743</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="4">
-        <v>45052</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>2024</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>2024</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>2024</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>2025</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>2025</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>2025</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>57</v>
+      <c r="E46" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://en.wikipedia.org/wiki/2015_United_Kingdom_general_election" xr:uid="{50759920-3E26-47B8-943E-83F93B87AD2B}"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://en.wikipedia.org/wiki/2015_Labour_Party_leadership_election_(UK)" xr:uid="{6F9EE9A2-40AD-4AF5-9448-9D18C30C1D79}"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://en.wikipedia.org/wiki/November_2015_Paris_attacks" xr:uid="{38338968-22A1-4108-9D90-3D0FDEC780E3}"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://en.wikipedia.org/wiki/Operation_Shader" xr:uid="{05700D24-D969-4503-A2CF-29318A249F5D}"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://en.wikipedia.org/wiki/Princess_Charlotte_of_Wales_(born_2015)" xr:uid="{88E6C1AF-2190-4E8A-BA7B-B8A6D3D01D19}"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://www.parliament.uk/business/committees/committees-a-z/commons-select/public-accounts-committee/news/report-uks-response-to-the-outbreak-of-ebola-virus-disease-in--west-africa/" xr:uid="{224B6C50-5ECA-4FD0-8F37-5F4CE98E31E6}"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://en.wikipedia.org/wiki/List_of_monarchs_in_Britain_by_length_of_reign" xr:uid="{952E5215-A167-4175-A843-C8DD08422589}"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://en.wikipedia.org/wiki/The_Smiler" xr:uid="{3329DE04-6871-41A1-B91B-0B787C8785DA}"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://en.wikipedia.org/wiki/2015_Nepal_earthquake" xr:uid="{7A613E7D-D58D-4BF2-8260-29E889B2B1A1}"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://www.thescottishsun.co.uk/news/15422513/date-time-rare-harvest-supermoon-scotland-brightest/" xr:uid="{0DD2684B-245D-4E49-A2B2-550505E0C805}"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://en.wikipedia.org/wiki/2016_United_Kingdom_European_Union_membership_referendum" xr:uid="{A33717E9-F525-48C4-8E12-6F14D7AC6B51}"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://en.wikipedia.org/wiki/2016_Labour_Party_leadership_election_(UK)" xr:uid="{78AF56E9-31F8-4B11-8982-731A65EBB4FD}"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://en.wikipedia.org/wiki/Operation_Shader" xr:uid="{2DE24605-5D94-458F-96C6-79070B93082F}"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://www.bbc.com/news/world-36766961" xr:uid="{B36A83AB-82E8-48C9-9ACC-4757AC1B031A}"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://en.wikipedia.org/wiki/2017_United_Kingdom_general_election" xr:uid="{93CAA6C8-AF21-4B98-9150-537C4A965C05}"/>
-    <hyperlink ref="D17" r:id="rId16" display="https://en.wikipedia.org/wiki/2017_Manchester_Arena_bombing" xr:uid="{097EA1B1-2F1A-4A8A-946D-3433B78C5061}"/>
-    <hyperlink ref="D18" r:id="rId17" display="https://en.wikipedia.org/wiki/2017_London_Bridge_attack" xr:uid="{2C4A1A84-CCCD-4A10-BB1A-A0A7FF6F6A75}"/>
-    <hyperlink ref="D19" r:id="rId18" display="https://en.wikipedia.org/wiki/Grenfell_Tower_fire" xr:uid="{C9A2B2C6-E02C-4C98-AB54-AEDB5A1E1F2A}"/>
-    <hyperlink ref="D20" r:id="rId19" display="https://en.wikipedia.org/wiki/UK_involvement_in_the_Syrian_Civil_War" xr:uid="{F2466BE1-DAEA-4BCB-A8CA-E8C1016D01E8}"/>
-    <hyperlink ref="D21" r:id="rId20" display="https://en.wikipedia.org/wiki/2018_Salisbury_poisoning" xr:uid="{B46AE6D7-C3A6-4B62-B3EA-C9E7B77DB630}"/>
-    <hyperlink ref="D22" r:id="rId21" display="https://en.wikipedia.org/wiki/2018_Royal_Wedding_of_Prince_Harry_and_Meghan_Markle" xr:uid="{031AE688-DDBB-4BD5-8317-FE84B8B2034A}"/>
-    <hyperlink ref="D23" r:id="rId22" display="https://www.bbc.com/sport/football/44442596" xr:uid="{D30F01DC-B636-483C-99C3-393E17298411}"/>
-    <hyperlink ref="D24" r:id="rId23" display="https://www.bbc.com/news/uk-44835787" xr:uid="{F19EFDC6-416A-45A5-A832-4BCD5935F2C4}"/>
-    <hyperlink ref="D25" r:id="rId24" display="https://en.wikipedia.org/wiki/2018_Amesbury_poisoning" xr:uid="{3B5668DE-0029-4FA1-9357-000F436AD913}"/>
-    <hyperlink ref="D26" r:id="rId25" display="https://www.bbc.com/news/uk-politics-46874731" xr:uid="{E5350615-B948-439A-88DA-A4D380F7BA82}"/>
-    <hyperlink ref="D27" r:id="rId26" display="https://en.wikipedia.org/wiki/2019_United_Kingdom_general_election" xr:uid="{23982E82-A282-4292-848C-B3CE19D9E324}"/>
-    <hyperlink ref="D28" r:id="rId27" display="https://www.bbc.com/sport/cricket/48811571" xr:uid="{9CFD978C-6650-40D6-AEA6-48D9C49E2A1B}"/>
-    <hyperlink ref="D29" r:id="rId28" display="https://www.bbc.com/news/uk-49021211" xr:uid="{2A17B42A-DA88-4AF5-985D-F99AA27D82E0}"/>
-    <hyperlink ref="D30" r:id="rId29" display="https://www.bbc.com/news/uk-51905309" xr:uid="{2D3F09DC-769F-4670-9F27-BC2A2981DB77}"/>
-    <hyperlink ref="D31" r:id="rId30" display="https://www.gov.uk/government/news/chancellor-announces-new-furlough-scheme" xr:uid="{78741C09-BB66-4B7C-9F1C-6F15C3C37BFB}"/>
-    <hyperlink ref="D32" r:id="rId31" display="https://www.bbc.com/news/health-51902031" xr:uid="{8ADEF902-F129-4696-99E5-76A71A04C993}"/>
-    <hyperlink ref="D33" r:id="rId32" display="https://www.bbc.com/news/uk-politics-55250172" xr:uid="{DE9F3C94-DED8-425A-88C8-DEE879BEB30B}"/>
-    <hyperlink ref="D34" r:id="rId33" display="https://www.gov.uk/government/publications/covid-19-vaccination-programme-what-you-need-to-know" xr:uid="{16F4BD7A-7E7C-401B-8C71-733C98C3AC7C}"/>
-    <hyperlink ref="D35" r:id="rId34" display="https://www.bbc.com/news/uk-57813799" xr:uid="{393C84B9-A354-4E76-B250-CF48494D0C55}"/>
-    <hyperlink ref="D36" r:id="rId35" display="https://www.bbc.com/news/uk-england-london-57716772" xr:uid="{42F35C0D-E1E1-47FE-941A-C5D0F96373E0}"/>
-    <hyperlink ref="D37" r:id="rId36" display="https://www.bbc.com/news/uk-61585838" xr:uid="{08ED67D7-7653-45BB-BC7A-9257DDCF3514}"/>
-    <hyperlink ref="D38" r:id="rId37" display="https://www.bbc.com/news/uk-61723746" xr:uid="{7570DC94-08A2-4C30-A008-7E052D5A2D8A}"/>
-    <hyperlink ref="D39" r:id="rId38" display="https://www.gov.uk/government/news/ukraine-uk-government-response" xr:uid="{BD1C6EAC-6B25-4BBC-A88E-D06735881E9B}"/>
-    <hyperlink ref="D40" r:id="rId39" display="https://www.bbc.com/news/uk-62123963" xr:uid="{708D48F6-A49F-4968-B6D8-655870AC5531}"/>
-    <hyperlink ref="D41" r:id="rId40" display="https://www.bbc.com/news/uk-65412825" xr:uid="{91CAB12C-D311-4C6F-88ED-689E52AC6D29}"/>
-    <hyperlink ref="D42" r:id="rId41" display="https://www.bbc.com/news/business-65412825" xr:uid="{2C29C5A2-EF96-471C-B9D6-AF8AA1AB46DB}"/>
-    <hyperlink ref="D43" r:id="rId42" display="https://www.bbc.com/news/uk-65412825" xr:uid="{6B48AD26-D167-41B3-A5AD-3B3CE84FF41D}"/>
-    <hyperlink ref="D44" r:id="rId43" display="https://www.bbc.com/news/uk-65412825" xr:uid="{2330EF01-9D5B-427D-8106-DC818BC4AE00}"/>
-    <hyperlink ref="D45" r:id="rId44" display="https://www.gov.uk/government/news/uk-government-announces-new-climate-change-policies" xr:uid="{47D1B529-D94E-4B43-996F-54194C322802}"/>
-    <hyperlink ref="D46" r:id="rId45" display="https://www.gov.uk/government/news/uk-technology-innovation" xr:uid="{B19ED524-279E-4640-A807-B62C62909892}"/>
-    <hyperlink ref="D47" r:id="rId46" display="https://www.bbc.com/news/business-65412825" xr:uid="{CDB7B329-8A19-4419-B894-702C7CCB02B1}"/>
-    <hyperlink ref="D48" r:id="rId47" display="https://www.gov.uk/government/news/uk-public-health-initiatives-2025" xr:uid="{E1CDF8AB-D8D6-4460-8EDF-C1FEA9D2BC19}"/>
-    <hyperlink ref="D49" r:id="rId48" display="https://www.gov.uk/government/news/uk-international-relations-2025" xr:uid="{BDC41A6F-692A-43E7-ACBF-B8AAD1A756AE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Raw/UK_Key_Events_2015_2025.xlsx
+++ b/Data/Raw/UK_Key_Events_2015_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\pet-inflation\Data\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63105619-4638-4C13-9CF9-DBD099DEB979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC00E03A-9729-4586-A624-0DF6A1DC0127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Year</t>
   </si>
@@ -71,27 +71,18 @@
     <t>Labour Party Leadership Election</t>
   </si>
   <si>
-    <t>Voting: 14 Aug – 10 Sep 2015</t>
-  </si>
-  <si>
     <t>Paris Terrorist Attacks (UK Response)</t>
   </si>
   <si>
     <t>UK Military Action Against ISIS (Operation Shader)</t>
   </si>
   <si>
-    <t>Ongoing from 2015</t>
-  </si>
-  <si>
     <t>Princess Charlotte's Birth</t>
   </si>
   <si>
     <t>UK's Response to Ebola Outbreak in West Africa</t>
   </si>
   <si>
-    <t>Announced on 11 Feb 2015</t>
-  </si>
-  <si>
     <t>Queen Elizabeth II Becomes Longest-Reigning British Monarch</t>
   </si>
   <si>
@@ -110,15 +101,9 @@
     <t>Labour Party Leadership Election (Jeremy Corbyn's Re-election)</t>
   </si>
   <si>
-    <t>Voting: 21 Jul – 24 Sep 2016</t>
-  </si>
-  <si>
     <t>Intensified UK Military Action Against ISIS</t>
   </si>
   <si>
-    <t>Ongoing from 2016</t>
-  </si>
-  <si>
     <t>Manchester Arena Terrorist Attack</t>
   </si>
   <si>
@@ -131,9 +116,6 @@
     <t>UK's Response to Syrian Civil War (Military Involvement)</t>
   </si>
   <si>
-    <t>Ongoing from 2017</t>
-  </si>
-  <si>
     <t>Salisbury Poisoning (Novichok Nerve Agent Attack)</t>
   </si>
   <si>
@@ -158,21 +140,12 @@
     <t>Economic Measures: Introduction of Furlough Scheme</t>
   </si>
   <si>
-    <t>NHS Strain Due to COVID-19</t>
-  </si>
-  <si>
-    <t>Spring 2020</t>
-  </si>
-  <si>
     <t>Brexit Transition Period Ends (UK Leaves EU Single Market and Customs Union)</t>
   </si>
   <si>
     <t>COVID-19 Vaccination Rollout</t>
   </si>
   <si>
-    <t>Began in Dec 2020; Ongoing</t>
-  </si>
-  <si>
     <t>Freedom Day: Lifting of Most COVID-19 Restrictions in England</t>
   </si>
   <si>
@@ -182,58 +155,13 @@
     <t>Queen Elizabeth II's Platinum Jubilee Celebrations</t>
   </si>
   <si>
-    <t>2–5 Jun 2022</t>
-  </si>
-  <si>
-    <t>Cost of Living Crisis Intensifies</t>
-  </si>
-  <si>
-    <t>Throughout 2022</t>
-  </si>
-  <si>
     <t>UK Support for Ukraine in Response to Russian Invasion</t>
   </si>
   <si>
-    <t>Ongoing from Feb 2022</t>
-  </si>
-  <si>
     <t>Record Heatwave in UK</t>
   </si>
   <si>
     <t>King Charles III's Coronation</t>
-  </si>
-  <si>
-    <t>Economic Challenges: High Inflation and Energy Costs</t>
-  </si>
-  <si>
-    <t>Throughout 2023</t>
-  </si>
-  <si>
-    <t>Public Sector Strikes (Nurses, Teachers, etc.)</t>
-  </si>
-  <si>
-    <t>Cost of Living Crisis Continuation</t>
-  </si>
-  <si>
-    <t>Throughout 2024</t>
-  </si>
-  <si>
-    <t>Climate Change Initiatives: New Government Policies</t>
-  </si>
-  <si>
-    <t>Technological Advancements: AI and Renewable Energy Developments</t>
-  </si>
-  <si>
-    <t>Economic Recovery Efforts Post-Pandemic</t>
-  </si>
-  <si>
-    <t>Throughout 2025</t>
-  </si>
-  <si>
-    <t>Public Health Initiatives: Focus on Mental Health and Well-being</t>
-  </si>
-  <si>
-    <t>International Relations: Strengthening Ties with Commonwealth and European Partners</t>
   </si>
   <si>
     <t>Start Date</t>
@@ -250,7 +178,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -304,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -315,13 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,517 +657,495 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6A453E-BD8E-40FD-80F8-18455C31A862}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2015</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>42131</v>
       </c>
-      <c r="E2" s="4">
-        <v>42131</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2015</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>42230</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>42257</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2015</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
         <v>42321</v>
       </c>
-      <c r="E4" s="4">
-        <v>42321</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2015</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4">
         <v>42005</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5">
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2015</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="6">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4">
         <v>42126</v>
       </c>
-      <c r="E6" s="4">
-        <v>42126</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2015</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4">
         <v>42046</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2015</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4">
         <v>42256</v>
       </c>
-      <c r="E8" s="4">
-        <v>42256</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2015</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="6">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4">
         <v>42157</v>
       </c>
-      <c r="E9" s="4">
-        <v>42157</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2015</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="6">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4">
         <v>42119</v>
       </c>
-      <c r="E10" s="4">
-        <v>42119</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2015</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4">
         <v>42274</v>
       </c>
-      <c r="E11" s="4">
-        <v>42274</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2016</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4">
         <v>42178</v>
       </c>
-      <c r="E12" s="4">
-        <v>42544</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2016</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="6">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4">
         <v>42542</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>42637</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2016</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="6">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4">
         <v>42370</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14">
+      <c r="E14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2017</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>42894</v>
       </c>
-      <c r="E15" s="4">
-        <v>42894</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2017</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="6">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4">
         <v>42877</v>
       </c>
-      <c r="E16" s="4">
-        <v>42877</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2017</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="6">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4">
         <v>42889</v>
       </c>
-      <c r="E17" s="4">
-        <v>42889</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2017</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="6">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4">
         <v>42900</v>
       </c>
-      <c r="E18" s="4">
-        <v>42900</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2017</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="6">
+        <v>30</v>
+      </c>
+      <c r="C19" s="4">
         <v>42736</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19">
+      <c r="E19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2018</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="6">
+        <v>31</v>
+      </c>
+      <c r="C20" s="4">
         <v>43224</v>
       </c>
-      <c r="E20" s="4">
-        <v>43163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2018</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="6">
+        <v>32</v>
+      </c>
+      <c r="C21" s="4">
         <v>43239</v>
       </c>
-      <c r="E21" s="4">
-        <v>43239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2018</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="6">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4">
         <v>43252</v>
       </c>
-      <c r="E22" s="5">
-        <v>43282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2018</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="6">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4">
         <v>43281</v>
       </c>
-      <c r="E23" s="4">
-        <v>43281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2019</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>43811</v>
       </c>
-      <c r="E24" s="4">
-        <v>43811</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2019</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="4">
+        <v>35</v>
+      </c>
+      <c r="C25" s="4">
         <v>43660</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2019</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="4">
+        <v>36</v>
+      </c>
+      <c r="C26" s="4">
         <v>43665</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2020</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="4">
+        <v>37</v>
+      </c>
+      <c r="C27" s="4">
         <v>43913</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2020</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="4">
+        <v>38</v>
+      </c>
+      <c r="C28" s="4">
         <v>43910</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2020</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C29" s="4">
+        <v>44196</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="4">
-        <v>44196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4">
+        <v>44166</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2021</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C31" s="4">
+        <v>44396</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2021</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="4">
-        <v>44396</v>
+        <v>42</v>
+      </c>
+      <c r="C32" s="4">
+        <v>44378</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44408</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="5">
-        <v>44378</v>
+        <v>43</v>
+      </c>
+      <c r="C33" s="4">
+        <v>44714</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44717</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1253,10 +1153,13 @@
         <v>2022</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C34" s="4">
+        <v>44593</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1264,131 +1167,30 @@
         <v>2022</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C35" s="4">
+        <v>44743</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44773</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="5">
-        <v>44743</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="4">
+        <v>46</v>
+      </c>
+      <c r="C36" s="4">
         <v>45052</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>2024</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>2024</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>2024</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>2025</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>2025</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>2025</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>68</v>
+      <c r="E36">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
